--- a/docs/odh/shr-core-ActionPerformed-model.xlsx
+++ b/docs/odh/shr-core-ActionPerformed-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="86">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-ActionPerformed-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-ActionPerformed-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +189,7 @@
     <t>shr-core-ActionPerformed-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -203,7 +199,7 @@
     <t>shr-core-ActionPerformed-model.subjectOfRecord[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ResearchSubject-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Group-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Specimen-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ResearchSubject-model]]}
 </t>
   </si>
   <si>
@@ -217,7 +213,7 @@
     <t>shr-core-ActionPerformed-model.careContext[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EpisodeOfCare-model]]}
 </t>
   </si>
   <si>
@@ -241,41 +237,47 @@
     <t>shr-core-ActionPerformed-model.reasonCode</t>
   </si>
   <si>
-    <t>The justification, as a code.</t>
-  </si>
-  <si>
-    <t>The justification, as a code.
-Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept, so we are not going to support a string.</t>
+    <t>The explanation or justification for the current item or action, as a code.</t>
+  </si>
+  <si>
+    <t>The explanation or justification for the current item or action, as a code.
+Reason is a string or CodeableConcept in DSTU2 but in later versions only a CodeableConcept.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0566251
 </t>
   </si>
   <si>
-    <t>shr-core-ActionPerformed-model.reasonReference[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model]]}
+    <t>shr-core-ActionPerformed-model.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
 </t>
   </si>
   <si>
     <t>The justification, as reference to a condition or observation.</t>
   </si>
   <si>
+    <t>shr-core-ActionPerformed-model.basedOn</t>
+  </si>
+  <si>
+    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
+  </si>
+  <si>
     <t>shr-core-ActionPerformed-model.occurrenceTimeOrPeriod[x]</t>
   </si>
   <si>
     <t>date {[]} {[]}
-dateTime {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The point in time or span of time in which something happens.</t>
+dateTime {[]} {[]}http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>The point or period of time when the event takes place. Times can be precise (dateTime) or approximate (date). If a time period is used, and the start date or dateTime is missing, the start of the period is not known. If the end date or dateTime is missing, it means that the period is ongoing.</t>
   </si>
   <si>
     <t>shr-core-ActionPerformed-model.participation</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Participation-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Participation-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -286,16 +288,6 @@
   </si>
   <si>
     <t>The technique used to carry out an action, for example, the specific imaging technical or assessment vehicle.</t>
-  </si>
-  <si>
-    <t>shr-core-ActionPerformed-model.relatedRequest[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>The proposal, order, or plan that is partly or wholly fulfilled by the performance of this act.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -856,7 +848,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -888,7 +880,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -911,13 +903,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -968,7 +960,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -985,7 +977,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1008,13 +1000,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1065,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1082,7 +1074,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1108,10 +1100,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1162,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1179,7 +1171,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1202,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1259,7 +1251,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1276,7 +1268,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1299,13 +1291,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1356,7 +1348,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1373,7 +1365,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1396,13 +1388,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>65</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1453,7 +1445,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1470,7 +1462,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1493,13 +1485,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1535,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1550,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1567,7 +1559,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1593,10 +1585,10 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1632,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1647,7 +1639,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1664,7 +1656,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1687,13 +1679,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1744,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1761,7 +1753,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1769,10 +1761,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1784,13 +1776,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1841,13 +1833,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -1858,7 +1850,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1866,10 +1858,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -1881,13 +1873,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1938,13 +1930,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -1955,7 +1947,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -1966,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -1978,13 +1970,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2035,13 +2027,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2052,7 +2044,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2075,13 +2067,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2132,7 +2124,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
